--- a/assets/luna/item_shop.xlsx
+++ b/assets/luna/item_shop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\as3305191\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pony0116\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF75CFD5-2D00-40F9-BEBE-5DAB014558B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB786ACF-1025-410F-8BF5-37249C0E2355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{0DD2C6A3-7874-49A9-8924-853B3D3D97D5}"/>
+    <workbookView xWindow="11340" yWindow="2280" windowWidth="21600" windowHeight="11295" xr2:uid="{0DD2C6A3-7874-49A9-8924-853B3D3D97D5}"/>
   </bookViews>
   <sheets>
     <sheet name="裝備道具(Equipment)" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t xml:space="preserve">[M]墨紋魚(30天) </t>
   </si>
@@ -81,9 +81,6 @@
     <t>[M]綠獅鷲羽毛 (30天</t>
   </si>
   <si>
-    <t xml:space="preserve">[M]白色魔法掃帚(7天) </t>
-  </si>
-  <si>
     <t xml:space="preserve">[M]黃色紙飛機(7天) </t>
   </si>
   <si>
@@ -183,6 +180,13 @@
   </si>
   <si>
     <t xml:space="preserve">[M]波點信使鴿 (30天) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡易劍</t>
+  </si>
+  <si>
+    <t>英文en</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF2FFCA-CA1D-4464-930D-09D1EAA09124}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -579,67 +583,70 @@
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>21001770</v>
+        <v>11000001</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>21001771</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21001772</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>21001773</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>21001774</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>21001775</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -648,6 +655,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -666,7 +674,7 @@
         <v>21001780</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1">
         <v>200</v>
@@ -677,7 +685,7 @@
         <v>21001781</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>200</v>
@@ -688,7 +696,7 @@
         <v>21001782</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>200</v>
@@ -699,7 +707,7 @@
         <v>21001783</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>200</v>
@@ -710,7 +718,7 @@
         <v>21001784</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>200</v>
@@ -721,7 +729,7 @@
         <v>21001785</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>200</v>
@@ -732,7 +740,7 @@
         <v>21001786</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>200</v>
@@ -762,13 +770,13 @@
         <v>21001843</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1">
         <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -776,13 +784,13 @@
         <v>21001844</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -790,13 +798,13 @@
         <v>21001845</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -809,7 +817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B5A8FE-AE81-4A54-8601-4ADDA4F4DFF6}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -826,7 +834,7 @@
         <v>300</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -840,7 +848,7 @@
         <v>300</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -854,7 +862,7 @@
         <v>300</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -868,7 +876,7 @@
         <v>300</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -882,7 +890,7 @@
         <v>300</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -896,7 +904,7 @@
         <v>300</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -910,7 +918,7 @@
         <v>300</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -924,7 +932,7 @@
         <v>300</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -938,7 +946,7 @@
         <v>300</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -952,7 +960,7 @@
         <v>300</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -966,7 +974,7 @@
         <v>300</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -980,7 +988,7 @@
         <v>300</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -994,7 +1002,7 @@
         <v>300</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1008,7 +1016,7 @@
         <v>300</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1016,13 +1024,13 @@
         <v>21001633</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15">
         <v>300</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1049,13 +1057,13 @@
         <v>21001873</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1">
         <v>1500</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1063,13 +1071,13 @@
         <v>21001874</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>1500</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1077,13 +1085,13 @@
         <v>21001875</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>1500</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
